--- a/Арбитр-Спецификация.xlsx
+++ b/Арбитр-Спецификация.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\UiPath\PWC-Arbitr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE9C9A-DE33-490E-9A65-D121AD87C4A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39941AD3-5A85-4CD4-B79F-BAEA73B65CCB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1808" yWindow="1808" windowWidth="17880" windowHeight="10417" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Код робота</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Инструкция по заполнению конфигурационного файла</t>
   </si>
   <si>
-    <t>Конфигурационный файл с листом "Параметры" (см. лист "Параметры")</t>
-  </si>
-  <si>
     <t>Ограничения</t>
   </si>
   <si>
@@ -128,10 +125,135 @@
     <t>Полный путь к директории, куда требуется сохранить результат работы робота</t>
   </si>
   <si>
-    <t>C:\Output</t>
-  </si>
-  <si>
-    <t>C:\Output\R32</t>
+    <t>\\Mac\Home\Documents\UiPath\PWC-Arbitr</t>
+  </si>
+  <si>
+    <t>файл с разметкой форматирования "resultFormat.xlsx" в папке с файлом конфигурации</t>
+  </si>
+  <si>
+    <r>
+      <t>Конфигурационный файл с листом "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Параметры</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>". 
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Полный путь к директории</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">" - указывается полный путь к папке, куда будет созранен результирующий файл "result.xlsx".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Названиие компании</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>" - необязательное поле, служит для удобства пользователя. Указывается название компании, либо ячейка остается пустой.
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ИНН</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>" - обязательное поле. Поиск на сайте осуществляется по ИНН.
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Начало / окончание периода</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">" - необязательные поля, служат для указания </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">периода действия плана закупок. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Заполняется дата в формате ДД.мм.ГГГГ или ячейка остается пустой.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -141,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -202,9 +324,32 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -234,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -315,22 +460,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -340,7 +495,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -353,26 +508,27 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -381,8 +537,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1566,164 +1725,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.46484375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="39.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.46484375" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="256" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="75.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="68.650000000000006" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="7" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.65" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="21.4" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="136.9" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="61.9" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="11.75" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="11.75" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="11.75" customHeight="1">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="11.75" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="11" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="85.5" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="85.5" customHeight="1">
-      <c r="A11" s="13" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1735,139 +1906,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.19921875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="19.73046875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="20.46484375" style="16" customWidth="1"/>
-    <col min="5" max="256" width="8.86328125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="19.73046875" customWidth="1"/>
+    <col min="4" max="4" width="20.46484375" customWidth="1"/>
+    <col min="5" max="256" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="41.25" customHeight="1">
+      <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="6.75" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="27" customHeight="1">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="27" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="B5">
+        <v>5048028638</v>
+      </c>
+      <c r="C5" s="19">
+        <v>36914</v>
+      </c>
+      <c r="D5" s="19">
+        <v>43458</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="21">
-        <v>5048028638</v>
-      </c>
-      <c r="C5" s="22">
-        <v>36914</v>
-      </c>
-      <c r="D5" s="22">
-        <v>43458</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="B6">
+        <v>7838412492</v>
+      </c>
+      <c r="C6" s="19">
+        <v>32885</v>
+      </c>
+      <c r="D6" s="19">
+        <v>43366</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21">
-        <v>7838412492</v>
-      </c>
-      <c r="C6" s="22">
-        <v>32885</v>
-      </c>
-      <c r="D6" s="22">
-        <v>43366</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="B7">
+        <v>7703590927</v>
+      </c>
+      <c r="C7" s="19">
+        <v>42858</v>
+      </c>
+      <c r="D7" s="19">
+        <v>43081</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.05" customHeight="1">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="21">
-        <v>7703590927</v>
-      </c>
-      <c r="C7" s="22">
-        <v>42858</v>
-      </c>
-      <c r="D7" s="22">
-        <v>43081</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.05" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="21">
+      <c r="B8">
         <v>4352354308</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="20"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="16.05" customHeight="1">
-      <c r="E9" s="20"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="E10" s="20"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="E11" s="20"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3176ADDF-BF86-4505-A33C-0EB6C438CCAD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Арбитр-Спецификация.xlsx
+++ b/Арбитр-Спецификация.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\UiPath\PWC-Arbitr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39941AD3-5A85-4CD4-B79F-BAEA73B65CCB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CC9882-FCA8-492D-BE63-3CED2C14D890}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>Код робота</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Описание робота</t>
   </si>
   <si>
-    <t>Заходим на сайт картотеки арбитражных дел ("https://kad.arbitr.ru/"), вводим ИНН проверяемой компании, выбираем роль "Ответчик", вводим даты регистрации дела, результаты поиска (статус наличия дел и ссылки на дело) сохраняем в выходном файле</t>
-  </si>
-  <si>
     <t>Как запустить робота?</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
   </si>
   <si>
     <t xml:space="preserve"> +</t>
-  </si>
-  <si>
-    <t>Открывает диалоговое окно для выбора конфигурационного файла, выполняет загрузку параметров в переменные</t>
   </si>
   <si>
     <t>Название компании</t>
@@ -255,6 +249,87 @@
       <t>Заполняется дата в формате ДД.мм.ГГГГ или ячейка остается пустой.</t>
     </r>
   </si>
+  <si>
+    <t>Используемые сайты</t>
+  </si>
+  <si>
+    <t>https://kad.arbitr.ru/</t>
+  </si>
+  <si>
+    <t>Заходим на сайт картотеки арбитражных дел, вводим ИНН проверяемой компании, выбираем роль "Ответчик", вводим даты регистрации дела, результаты поиска (статус наличия дел и ссылки на дело) сохраняем в выходном файле</t>
+  </si>
+  <si>
+    <t>ASelectConfigFile</t>
+  </si>
+  <si>
+    <t>Выбрать конфигурационный файл</t>
+  </si>
+  <si>
+    <t>Открывает диалоговое окно для выбора конфигурационного файла</t>
+  </si>
+  <si>
+    <t>Выполняет загрузку параметров из конфигурационного файла в переменные</t>
+  </si>
+  <si>
+    <t>ACloseIEBrowserAndExcel</t>
+  </si>
+  <si>
+    <t>Закрыть Excel и Internet Explorer</t>
+  </si>
+  <si>
+    <t>Уничтожает процессы IE и Excel</t>
+  </si>
+  <si>
+    <t>STOpenBrowser</t>
+  </si>
+  <si>
+    <t>AProcessACompany</t>
+  </si>
+  <si>
+    <t>Выполнить работу с браузером и записать результаты поиска</t>
+  </si>
+  <si>
+    <t>Получение с сайта информации по заявкам на закупки для компаний из конфигурационного файла</t>
+  </si>
+  <si>
+    <t>Обработать одну компанию</t>
+  </si>
+  <si>
+    <t>Браузер</t>
+  </si>
+  <si>
+    <t>Ввод данных компании в форму на сайте и извлечение ссылок на судебные дела</t>
+  </si>
+  <si>
+    <t>TCheckCapchaAnGetData</t>
+  </si>
+  <si>
+    <t>Безопасно получить данные поиска</t>
+  </si>
+  <si>
+    <t>Проверяет наличие капчи, наличие доступа к серверу и извлекает данные поискового запроса</t>
+  </si>
+  <si>
+    <t>STWriteResult</t>
+  </si>
+  <si>
+    <t>Записать полученные результаты</t>
+  </si>
+  <si>
+    <t>Запись данных поисковых запросов в результирующий excel файл</t>
+  </si>
+  <si>
+    <t>TColorStatusColumn</t>
+  </si>
+  <si>
+    <t>Установить статус</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Устанавливает цвет ячейки в статусном поле в зависимости от результатов поискового запроса</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -353,6 +428,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -379,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -471,13 +553,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -531,16 +639,32 @@
     <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1725,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" customHeight="1"/>
@@ -1738,7 +1862,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="12.46484375" customWidth="1"/>
     <col min="5" max="5" width="17.19921875" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
     <col min="7" max="256" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1754,150 +1878,354 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="75.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="68.650000000000006" customHeight="1">
+    <row r="3" spans="1:6" ht="57.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
+    <row r="4" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25" t="s">
-        <v>35</v>
-      </c>
+    <row r="5" spans="1:6" ht="12" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
+    <row r="6" spans="1:6" ht="66.400000000000006" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="136.9" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>36</v>
-      </c>
+    <row r="7" spans="1:6" ht="11.65" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="61.9" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
+    <row r="8" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="11.75" customHeight="1">
-      <c r="A10" s="8" t="s">
+    <row r="9" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.65" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.4" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="136.9" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.4" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="40.15" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="11.75" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="11.75" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="11.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="10" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="63.75" customHeight="1">
+      <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="85.5" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="B19" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="F19" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="F20" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="63.75" customHeight="1">
+      <c r="A21" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="51" customHeight="1">
+      <c r="A22" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="56.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="53.25" customHeight="1">
+      <c r="A24" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="47.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="F29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1908,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" customHeight="1"/>
@@ -1923,7 +2251,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="3"/>
@@ -1932,10 +2260,10 @@
     </row>
     <row r="2" spans="1:5" ht="41.25" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1950,22 +2278,22 @@
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="27" customHeight="1">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>5048028638</v>
@@ -1980,7 +2308,7 @@
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>7838412492</v>
@@ -1995,7 +2323,7 @@
     </row>
     <row r="7" spans="1:5" ht="36.75" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>7703590927</v>
@@ -2010,7 +2338,7 @@
     </row>
     <row r="8" spans="1:5" ht="16.05" customHeight="1">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>4352354308</v>

--- a/Арбитр-Спецификация.xlsx
+++ b/Арбитр-Спецификация.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\UiPath\PWC-Arbitr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CC9882-FCA8-492D-BE63-3CED2C14D890}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D0F51A-4BC4-4184-8E83-074F99BA30F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>Код робота</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>Устанавливает цвет ячейки в статусном поле в зависимости от результатов поискового запроса</t>
+  </si>
+  <si>
+    <t>ПАО "Газпром"</t>
   </si>
 </sst>
 </file>
@@ -648,12 +651,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -666,6 +663,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -762,8 +765,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{241BAE6A-2EE0-4629-953D-A6B5A9A30F34}" name="inputTable" displayName="inputTable" ref="A4:D8" totalsRowShown="0">
-  <autoFilter ref="A4:D8" xr:uid="{46F88EA8-07B0-465B-9A40-2531CFE10645}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{241BAE6A-2EE0-4629-953D-A6B5A9A30F34}" name="inputTable" displayName="inputTable" ref="A4:D9" totalsRowShown="0">
+  <autoFilter ref="A4:D9" xr:uid="{46F88EA8-07B0-465B-9A40-2531CFE10645}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{78DA6795-9461-432E-9C78-1C5A446A40BB}" name="Название компании"/>
     <tableColumn id="2" xr3:uid="{DF7D0170-B3C2-46C5-A5AB-2141E5206FE6}" name="ИНН"/>
@@ -1851,7 +1854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -1932,14 +1935,14 @@
     </row>
     <row r="7" spans="1:6" ht="11.65" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1951,7 +1954,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A9" s="26"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="23" t="s">
         <v>33</v>
       </c>
@@ -1961,7 +1964,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A10" s="27"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1972,7 +1975,7 @@
     </row>
     <row r="11" spans="1:6" ht="12.4" customHeight="1">
       <c r="A11" s="25"/>
-      <c r="B11" s="29"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2072,7 +2075,7 @@
       <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -2109,10 +2112,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="63.75" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -2124,12 +2127,12 @@
       <c r="E21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="51" customHeight="1">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="29" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -2144,7 +2147,7 @@
       <c r="E22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="30" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2152,7 +2155,7 @@
       <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C23" t="s">
@@ -2164,21 +2167,21 @@
       <c r="E23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="30" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="53.25" customHeight="1">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="29" t="s">
         <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -2192,19 +2195,19 @@
       <c r="A25" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="30" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2236,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" customHeight="1"/>
@@ -2346,6 +2349,18 @@
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="16.05" customHeight="1">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>7736050003</v>
+      </c>
+      <c r="C9" s="19">
+        <v>42858</v>
+      </c>
+      <c r="D9" s="19">
+        <v>43081</v>
+      </c>
       <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
